--- a/data/df_clean.xlsx
+++ b/data/df_clean.xlsx
@@ -500,532 +500,532 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.07848065518215142</v>
+        <v>1.85714285714285</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5357142857142856</v>
+        <v>2030</v>
       </c>
       <c r="D2" t="n">
-        <v>0.3293641343176946</v>
+        <v>738.736842105263</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F2" t="n">
-        <v>1</v>
+        <v>22.2678571428571</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>210</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="J2" t="n">
-        <v>1</v>
+        <v>3000</v>
       </c>
       <c r="K2" t="n">
-        <v>0.5555555555555556</v>
+        <v>220</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M2" t="n">
-        <v>0.4347826086956523</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>0.07848065518215142</v>
+        <v>1.85714285714285</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5357142857142856</v>
+        <v>2030</v>
       </c>
       <c r="D3" t="n">
-        <v>0.3293641343176946</v>
+        <v>738.736842105263</v>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>129</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>21.25</v>
       </c>
       <c r="G3" t="n">
-        <v>1</v>
+        <v>300</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>210</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="J3" t="n">
-        <v>1</v>
+        <v>3000</v>
       </c>
       <c r="K3" t="n">
-        <v>0.5555555555555556</v>
+        <v>220</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1666666666666666</v>
+        <v>5</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B4" t="n">
-        <v>0.5936276549889263</v>
+        <v>3.55701754385964</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1785714285714279</v>
+        <v>1930</v>
       </c>
       <c r="D4" t="n">
-        <v>0.4426847662141781</v>
+        <v>889</v>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>129</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>21.25</v>
       </c>
       <c r="G4" t="n">
-        <v>1</v>
+        <v>300</v>
       </c>
       <c r="H4" t="n">
-        <v>0.2125</v>
+        <v>380</v>
       </c>
       <c r="I4" t="n">
-        <v>0.625</v>
+        <v>75</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>1800</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="L4" t="n">
-        <v>0.4999999999999999</v>
+        <v>7</v>
       </c>
       <c r="M4" t="n">
-        <v>0.4347826086956523</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B5" t="n">
-        <v>0.5861486130488498</v>
+        <v>3.53233830845771</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7857142857142856</v>
+        <v>2100</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8438914027149321</v>
+        <v>1421</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>129</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>21.25</v>
       </c>
       <c r="G5" t="n">
-        <v>1</v>
+        <v>300</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>1010</v>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>78</v>
       </c>
       <c r="J5" t="n">
-        <v>0.1666666666666667</v>
+        <v>2000</v>
       </c>
       <c r="K5" t="n">
-        <v>1</v>
+        <v>300</v>
       </c>
       <c r="L5" t="n">
-        <v>0.4999999999999999</v>
+        <v>7</v>
       </c>
       <c r="M5" t="n">
-        <v>0.5652173913043481</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B6" t="n">
-        <v>0.4004818656183298</v>
+        <v>2.91967783631954</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>2160</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4758672699849171</v>
+        <v>933</v>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>129</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>21.25</v>
       </c>
       <c r="G6" t="n">
-        <v>1</v>
+        <v>300</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>1010</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>78</v>
       </c>
       <c r="J6" t="n">
-        <v>0.1666666666666667</v>
+        <v>2000</v>
       </c>
       <c r="K6" t="n">
-        <v>1</v>
+        <v>300</v>
       </c>
       <c r="L6" t="n">
-        <v>0.4999999999999999</v>
+        <v>7</v>
       </c>
       <c r="M6" t="n">
-        <v>1</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B7" t="n">
-        <v>0.3876569884852907</v>
+        <v>2.87735849056603</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3928571428571423</v>
+        <v>1990</v>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>1628</v>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>129</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>21.25</v>
       </c>
       <c r="G7" t="n">
-        <v>1</v>
+        <v>300</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>1010</v>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
+        <v>78</v>
       </c>
       <c r="J7" t="n">
-        <v>0.1666666666666667</v>
+        <v>2000</v>
       </c>
       <c r="K7" t="n">
-        <v>1</v>
+        <v>300</v>
       </c>
       <c r="L7" t="n">
-        <v>0.8333333333333334</v>
+        <v>9</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>1.59817351598173</v>
       </c>
       <c r="C8" t="n">
-        <v>0.25</v>
+        <v>1950</v>
       </c>
       <c r="D8" t="n">
-        <v>0.3959276018099548</v>
+        <v>827</v>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>129</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>21.25</v>
       </c>
       <c r="G8" t="n">
-        <v>1</v>
+        <v>300</v>
       </c>
       <c r="H8" t="n">
-        <v>0.325</v>
+        <v>470</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4166666666666625</v>
+        <v>73.3333333333333</v>
       </c>
       <c r="J8" t="n">
-        <v>0.5462962962962918</v>
+        <v>2455.55555555555</v>
       </c>
       <c r="K8" t="n">
-        <v>0.5555555555555556</v>
+        <v>220</v>
       </c>
       <c r="L8" t="n">
-        <v>0.8333333333333334</v>
+        <v>9</v>
       </c>
       <c r="M8" t="n">
-        <v>0.4347826086956523</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B9" t="n">
-        <v>0.4004818656183298</v>
+        <v>2.91967783631954</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3571428571428568</v>
+        <v>1980</v>
       </c>
       <c r="D9" t="n">
-        <v>0.2006033182503771</v>
+        <v>568</v>
       </c>
       <c r="E9" t="n">
-        <v>1</v>
+        <v>129</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>21.25</v>
       </c>
       <c r="G9" t="n">
-        <v>1</v>
+        <v>300</v>
       </c>
       <c r="H9" t="n">
-        <v>0.325</v>
+        <v>470</v>
       </c>
       <c r="I9" t="n">
-        <v>0.4166666666666625</v>
+        <v>73.3333333333333</v>
       </c>
       <c r="J9" t="n">
-        <v>0.5462962962962918</v>
+        <v>2455.55555555555</v>
       </c>
       <c r="K9" t="n">
-        <v>0.5555555555555556</v>
+        <v>220</v>
       </c>
       <c r="L9" t="n">
-        <v>0.8333333333333334</v>
+        <v>9</v>
       </c>
       <c r="M9" t="n">
-        <v>0.5652173913043481</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B10" t="n">
-        <v>0.7367001806850695</v>
+        <v>4.02912621359223</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1071428571428568</v>
+        <v>1910</v>
       </c>
       <c r="D10" t="n">
-        <v>0.3755656108597286</v>
+        <v>800</v>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>129</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>21.25</v>
       </c>
       <c r="G10" t="n">
-        <v>1</v>
+        <v>300</v>
       </c>
       <c r="H10" t="n">
-        <v>0.325</v>
+        <v>470</v>
       </c>
       <c r="I10" t="n">
-        <v>0.4166666666666625</v>
+        <v>73.3333333333333</v>
       </c>
       <c r="J10" t="n">
-        <v>0.5462962962962918</v>
+        <v>2455.55555555555</v>
       </c>
       <c r="K10" t="n">
-        <v>0.5555555555555556</v>
+        <v>220</v>
       </c>
       <c r="L10" t="n">
-        <v>0.8333333333333334</v>
+        <v>9</v>
       </c>
       <c r="M10" t="n">
-        <v>1</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B11" t="n">
-        <v>0.405059366673626</v>
+        <v>2.93478260869565</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5357142857142856</v>
+        <v>2030</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>302</v>
       </c>
       <c r="E11" t="n">
-        <v>1</v>
+        <v>129</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>21.25</v>
       </c>
       <c r="G11" t="n">
-        <v>1</v>
+        <v>300</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>210</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="J11" t="n">
-        <v>1</v>
+        <v>3000</v>
       </c>
       <c r="K11" t="n">
-        <v>0.5555555555555556</v>
+        <v>220</v>
       </c>
       <c r="L11" t="n">
-        <v>0.9999999999999999</v>
+        <v>10</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B12" t="n">
+        <v>3.55701754385964</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1880</v>
+      </c>
+      <c r="D12" t="n">
+        <v>313</v>
+      </c>
+      <c r="E12" t="n">
+        <v>129</v>
+      </c>
+      <c r="F12" t="n">
+        <v>21.25</v>
+      </c>
+      <c r="G12" t="n">
+        <v>300</v>
+      </c>
+      <c r="H12" t="n">
+        <v>210</v>
+      </c>
+      <c r="I12" t="n">
+        <v>70</v>
+      </c>
+      <c r="J12" t="n">
+        <v>3000</v>
+      </c>
+      <c r="K12" t="n">
+        <v>220</v>
+      </c>
+      <c r="L12" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="n">
-        <v>0.5936276549889263</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0.008295625942684792</v>
-      </c>
-      <c r="E12" t="n">
-        <v>1</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0</v>
-      </c>
-      <c r="G12" t="n">
-        <v>1</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0.5555555555555556</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0.9999999999999999</v>
-      </c>
       <c r="M12" t="n">
-        <v>0.4347826086956523</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B13" t="n">
-        <v>0.7865283180439291</v>
+        <v>4.19354838709677</v>
       </c>
       <c r="C13" t="n">
-        <v>0.25</v>
+        <v>1950</v>
       </c>
       <c r="D13" t="n">
-        <v>0.1538461538461539</v>
+        <v>506</v>
       </c>
       <c r="E13" t="n">
-        <v>1</v>
+        <v>129</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>21.25</v>
       </c>
       <c r="G13" t="n">
-        <v>1</v>
+        <v>300</v>
       </c>
       <c r="H13" t="n">
-        <v>0.2125</v>
+        <v>380</v>
       </c>
       <c r="I13" t="n">
-        <v>0.625</v>
+        <v>75</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>1800</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="L13" t="n">
-        <v>0.9999999999999999</v>
+        <v>10</v>
       </c>
       <c r="M13" t="n">
-        <v>0.5652173913043481</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B14" t="n">
-        <v>1</v>
+        <v>4.89795918367346</v>
       </c>
       <c r="C14" t="n">
-        <v>0.03571428571428559</v>
+        <v>1890</v>
       </c>
       <c r="D14" t="n">
-        <v>0.1794871794871795</v>
+        <v>540</v>
       </c>
       <c r="E14" t="n">
-        <v>1</v>
+        <v>129</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>21.25</v>
       </c>
       <c r="G14" t="n">
-        <v>1</v>
+        <v>300</v>
       </c>
       <c r="H14" t="n">
-        <v>0.2125</v>
+        <v>380</v>
       </c>
       <c r="I14" t="n">
-        <v>0.625</v>
+        <v>75</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>1800</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="L14" t="n">
-        <v>0.9999999999999999</v>
+        <v>10</v>
       </c>
       <c r="M14" t="n">
-        <v>1</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
